--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/应交所得税.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/应交所得税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18.23625</v>
-      </c>
-      <c r="C2" t="n">
-        <v>40.2617</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.6648</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0397</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.27442</v>
-      </c>
-      <c r="G2" t="n">
-        <v>47.7013</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14.01169</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24.77685</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.23504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.80031</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.84185</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.63703</v>
-      </c>
-      <c r="N2" t="n">
-        <v>23.50071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.47211</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.33802</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13.4435</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.14184</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.8430299999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.40269</v>
-      </c>
-      <c r="U2" t="n">
-        <v>36.05747</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.97426</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.616390000000001</v>
-      </c>
-      <c r="X2" t="n">
-        <v>80.84820000000001</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>44.34454</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>35.00209</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>5.19553</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12.69419</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>85.3323</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>28.46296</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4.1484</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>762.84016</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.73231</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13.85732</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>26.67975</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.64656</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>10.55033</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15.26498</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>27.41442</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>56.78083</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.24188</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>20.89786</v>
-      </c>
-      <c r="C3" t="n">
-        <v>53.28307</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.96429</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02905</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.03913</v>
-      </c>
-      <c r="G3" t="n">
-        <v>53.89113</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.495620000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>32.81443</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.34607</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.34753</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.52563</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.65747</v>
-      </c>
-      <c r="N3" t="n">
-        <v>29.77413</v>
-      </c>
-      <c r="O3" t="n">
-        <v>17.52918</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.81649</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>17.98934</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.8938</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.55353</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.65657</v>
-      </c>
-      <c r="U3" t="n">
-        <v>52.26973</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.24399</v>
-      </c>
-      <c r="W3" t="n">
-        <v>20.95296</v>
-      </c>
-      <c r="X3" t="n">
-        <v>81.17337000000001</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>47.98755</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>44.15576</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7.02658</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.88257</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>88.04647</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>32.46084</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>4.93515</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>885.69269</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15.86326</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.07775</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>33.36954</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.10176</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>12.71343</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21.41876</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23.72095</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>63.69496</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.6664</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>27.42328</v>
-      </c>
-      <c r="C4" t="n">
-        <v>76.42278</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.30381</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01924</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.851459999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>68.81829</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.28227</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38.10624</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13.20254</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19.55702</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.05552</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.62176</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40.21301</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16.73407</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.29214</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>18.86509</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.56041</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.77113</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7.59599</v>
-      </c>
-      <c r="U4" t="n">
-        <v>62.80045</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.80801</v>
-      </c>
-      <c r="W4" t="n">
-        <v>34.11638</v>
-      </c>
-      <c r="X4" t="n">
-        <v>96.75429</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>58.89745</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>50.86149</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>8.7338</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21.70172</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>94.28225</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>40.44376</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3.7681</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1100.74338</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>20.01008</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22.87389</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>38.27127</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.91909</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>18.27857</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>24.90648</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>28.5052</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>88.80893</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.90607</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
